--- a/Clases/Tercera clase/BASEDATA.xlsx
+++ b/Clases/Tercera clase/BASEDATA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>v1</t>
   </si>
@@ -74,33 +74,1548 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="511">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -114,1724 +1629,1724 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="3">
+      <c r="A2" s="11" t="n">
         <v>6.155322217382491</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="111" t="n">
         <v>39.467357392422855</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" s="211" t="n">
         <v>6.847980354214087</v>
       </c>
-      <c r="D2" t="n" s="3">
+      <c r="D2" s="311" t="n">
         <v>8.947146242717281</v>
       </c>
-      <c r="E2" t="n" s="3">
+      <c r="E2" s="411" t="n">
         <v>17.78093550936319</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
+      <c r="A3" s="12" t="n">
         <v>5.153450020588934</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="112" t="n">
         <v>45.053082392551005</v>
       </c>
-      <c r="C3" t="n" s="3">
+      <c r="C3" s="212" t="n">
         <v>9.781614181119949</v>
       </c>
-      <c r="D3" t="n" s="3">
+      <c r="D3" s="312" t="n">
         <v>7.572581711690873</v>
       </c>
-      <c r="E3" t="n" s="3">
+      <c r="E3" s="412" t="n">
         <v>11.942766398424283</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="3">
+      <c r="A4" s="13" t="n">
         <v>11.046448666602373</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="113" t="n">
         <v>13.694747905246913</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" s="213" t="n">
         <v>9.567883278941736</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" s="313" t="n">
         <v>9.656200294848531</v>
       </c>
-      <c r="E4" t="n" s="3">
+      <c r="E4" s="413" t="n">
         <v>14.01642320677638</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="3">
+      <c r="A5" s="14" t="n">
         <v>1.1276630079373717</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="114" t="n">
         <v>42.52569710370153</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" s="214" t="n">
         <v>9.116681717569008</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" s="314" t="n">
         <v>7.320561338448897</v>
       </c>
-      <c r="E5" t="n" s="3">
+      <c r="E5" s="414" t="n">
         <v>15.93819627421908</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="3">
+      <c r="A6" s="15" t="n">
         <v>9.370985678397119</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="115" t="n">
         <v>61.38802754925564</v>
       </c>
-      <c r="C6" t="n" s="3">
+      <c r="C6" s="215" t="n">
         <v>6.597410779213533</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" s="315" t="n">
         <v>6.449884436093271</v>
       </c>
-      <c r="E6" t="n" s="3">
+      <c r="E6" s="415" t="n">
         <v>25.076668285764754</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="3">
+      <c r="A7" s="16" t="n">
         <v>9.675414701923728</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="116" t="n">
         <v>71.63922177860513</v>
       </c>
-      <c r="C7" t="n" s="3">
+      <c r="C7" s="216" t="n">
         <v>9.38850162900053</v>
       </c>
-      <c r="D7" t="n" s="3">
+      <c r="D7" s="316" t="n">
         <v>9.832045957678929</v>
       </c>
-      <c r="E7" t="n" s="3">
+      <c r="E7" s="416" t="n">
         <v>18.0152432131581</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3">
+      <c r="A8" s="17" t="n">
         <v>16.248052353039384</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="117" t="n">
         <v>97.4005072307773</v>
       </c>
-      <c r="C8" t="n" s="3">
+      <c r="C8" s="217" t="n">
         <v>9.001754990313202</v>
       </c>
-      <c r="D8" t="n" s="3">
+      <c r="D8" s="317" t="n">
         <v>6.4324165128637105</v>
       </c>
-      <c r="E8" t="n" s="3">
+      <c r="E8" s="417" t="n">
         <v>22.403801763430238</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3">
+      <c r="A9" s="18" t="n">
         <v>7.406410742551088</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="118" t="n">
         <v>73.17629266763106</v>
       </c>
-      <c r="C9" t="n" s="3">
+      <c r="C9" s="218" t="n">
         <v>8.056783204665408</v>
       </c>
-      <c r="D9" t="n" s="3">
+      <c r="D9" s="318" t="n">
         <v>7.586206121603027</v>
       </c>
-      <c r="E9" t="n" s="3">
+      <c r="E9" s="418" t="n">
         <v>26.195922460174188</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3">
+      <c r="A10" s="19" t="n">
         <v>10.931171900592744</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="119" t="n">
         <v>11.039095420856029</v>
       </c>
-      <c r="C10" t="n" s="3">
+      <c r="C10" s="219" t="n">
         <v>5.3621056873817</v>
       </c>
-      <c r="D10" t="n" s="3">
+      <c r="D10" s="319" t="n">
         <v>7.191612525377423</v>
       </c>
-      <c r="E10" t="n" s="3">
+      <c r="E10" s="419" t="n">
         <v>26.142731298459694</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="3">
+      <c r="A11" s="20" t="n">
         <v>3.4052410209551454</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="120" t="n">
         <v>58.19789158878848</v>
       </c>
-      <c r="C11" t="n" s="3">
+      <c r="C11" s="220" t="n">
         <v>7.1079385513439775</v>
       </c>
-      <c r="D11" t="n" s="3">
+      <c r="D11" s="320" t="n">
         <v>9.63298311457038</v>
       </c>
-      <c r="E11" t="n" s="3">
+      <c r="E11" s="420" t="n">
         <v>14.796893509337679</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3">
+      <c r="A12" s="21" t="n">
         <v>12.499929540790617</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="121" t="n">
         <v>85.2914316416718</v>
       </c>
-      <c r="C12" t="n" s="3">
+      <c r="C12" s="221" t="n">
         <v>6.722328007454053</v>
       </c>
-      <c r="D12" t="n" s="3">
+      <c r="D12" s="321" t="n">
         <v>5.57608055206947</v>
       </c>
-      <c r="E12" t="n" s="3">
+      <c r="E12" s="421" t="n">
         <v>8.837843920337036</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="3">
+      <c r="A13" s="22" t="n">
         <v>17.64331036247313</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="122" t="n">
         <v>82.61800681939349</v>
       </c>
-      <c r="C13" t="n" s="3">
+      <c r="C13" s="222" t="n">
         <v>8.758678435115144</v>
       </c>
-      <c r="D13" t="n" s="3">
+      <c r="D13" s="322" t="n">
         <v>9.147309036226943</v>
       </c>
-      <c r="E13" t="n" s="3">
+      <c r="E13" s="422" t="n">
         <v>20.98564482992515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="3">
+      <c r="A14" s="23" t="n">
         <v>5.607076799497008</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="123" t="n">
         <v>17.283937893807888</v>
       </c>
-      <c r="C14" t="n" s="3">
+      <c r="C14" s="223" t="n">
         <v>6.093756599584594</v>
       </c>
-      <c r="D14" t="n" s="3">
+      <c r="D14" s="323" t="n">
         <v>6.184125474654138</v>
       </c>
-      <c r="E14" t="n" s="3">
+      <c r="E14" s="423" t="n">
         <v>12.179275539238006</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="3">
+      <c r="A15" s="24" t="n">
         <v>7.969758030958474</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="124" t="n">
         <v>31.501837163232267</v>
       </c>
-      <c r="C15" t="n" s="3">
+      <c r="C15" s="224" t="n">
         <v>6.460669863736257</v>
       </c>
-      <c r="D15" t="n" s="3">
+      <c r="D15" s="324" t="n">
         <v>6.47526910668239</v>
       </c>
-      <c r="E15" t="n" s="3">
+      <c r="E15" s="424" t="n">
         <v>28.20844702771865</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="3">
+      <c r="A16" s="25" t="n">
         <v>15.251021645963192</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="125" t="n">
         <v>96.93908775690943</v>
       </c>
-      <c r="C16" t="n" s="3">
+      <c r="C16" s="225" t="n">
         <v>6.779766826657578</v>
       </c>
-      <c r="D16" t="n" s="3">
+      <c r="D16" s="325" t="n">
         <v>6.224309305893257</v>
       </c>
-      <c r="E16" t="n" s="3">
+      <c r="E16" s="425" t="n">
         <v>8.890902985585853</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="3">
+      <c r="A17" s="26" t="n">
         <v>13.380434247665107</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="126" t="n">
         <v>13.39050937909633</v>
       </c>
-      <c r="C17" t="n" s="3">
+      <c r="C17" s="226" t="n">
         <v>8.159809618955478</v>
       </c>
-      <c r="D17" t="n" s="3">
+      <c r="D17" s="326" t="n">
         <v>7.325357377296314</v>
       </c>
-      <c r="E17" t="n" s="3">
+      <c r="E17" s="426" t="n">
         <v>29.096041603479534</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="3">
+      <c r="A18" s="27" t="n">
         <v>4.092243239283562</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="127" t="n">
         <v>92.4765788950026</v>
       </c>
-      <c r="C18" t="n" s="3">
+      <c r="C18" s="227" t="n">
         <v>9.462655333336443</v>
       </c>
-      <c r="D18" t="n" s="3">
+      <c r="D18" s="327" t="n">
         <v>7.2290044436231256</v>
       </c>
-      <c r="E18" t="n" s="3">
+      <c r="E18" s="427" t="n">
         <v>5.031511997804046</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="3">
+      <c r="A19" s="28" t="n">
         <v>7.1504970686510205</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="128" t="n">
         <v>75.36039206199348</v>
       </c>
-      <c r="C19" t="n" s="3">
+      <c r="C19" s="228" t="n">
         <v>8.720163905527443</v>
       </c>
-      <c r="D19" t="n" s="3">
+      <c r="D19" s="328" t="n">
         <v>8.501157218590379</v>
       </c>
-      <c r="E19" t="n" s="3">
+      <c r="E19" s="428" t="n">
         <v>22.68815513351001</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n" s="3">
+      <c r="A20" s="29" t="n">
         <v>7.1895022969692945</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="129" t="n">
         <v>28.06985928211361</v>
       </c>
-      <c r="C20" t="n" s="3">
+      <c r="C20" s="229" t="n">
         <v>7.286112111760303</v>
       </c>
-      <c r="D20" t="n" s="3">
+      <c r="D20" s="329" t="n">
         <v>6.886879323981702</v>
       </c>
-      <c r="E20" t="n" s="3">
+      <c r="E20" s="429" t="n">
         <v>20.75469004455954</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="3">
+      <c r="A21" s="30" t="n">
         <v>13.805810566991568</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="130" t="n">
         <v>85.61806717887521</v>
       </c>
-      <c r="C21" t="n" s="3">
+      <c r="C21" s="230" t="n">
         <v>5.180477218236774</v>
       </c>
-      <c r="D21" t="n" s="3">
+      <c r="D21" s="330" t="n">
         <v>8.382848374079913</v>
       </c>
-      <c r="E21" t="n" s="3">
+      <c r="E21" s="430" t="n">
         <v>24.32695111609064</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="3">
+      <c r="A22" s="31" t="n">
         <v>10.716223078779876</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="131" t="n">
         <v>45.69961125263944</v>
       </c>
-      <c r="C22" t="n" s="3">
+      <c r="C22" s="231" t="n">
         <v>7.842572592198849</v>
       </c>
-      <c r="D22" t="n" s="3">
+      <c r="D22" s="331" t="n">
         <v>5.829999708104879</v>
       </c>
-      <c r="E22" t="n" s="3">
+      <c r="E22" s="431" t="n">
         <v>27.315172030357644</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="3">
+      <c r="A23" s="32" t="n">
         <v>14.216076908633113</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="132" t="n">
         <v>45.34320334205404</v>
       </c>
-      <c r="C23" t="n" s="3">
+      <c r="C23" s="232" t="n">
         <v>7.195079452358186</v>
       </c>
-      <c r="D23" t="n" s="3">
+      <c r="D23" s="332" t="n">
         <v>6.57503866776824</v>
       </c>
-      <c r="E23" t="n" s="3">
+      <c r="E23" s="432" t="n">
         <v>17.780102080432698</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="3">
+      <c r="A24" s="33" t="n">
         <v>10.766973965801299</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="133" t="n">
         <v>52.53011982655153</v>
       </c>
-      <c r="C24" t="n" s="3">
+      <c r="C24" s="233" t="n">
         <v>8.00242227036506</v>
       </c>
-      <c r="D24" t="n" s="3">
+      <c r="D24" s="333" t="n">
         <v>6.664755099453032</v>
       </c>
-      <c r="E24" t="n" s="3">
+      <c r="E24" s="433" t="n">
         <v>23.725026823813096</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="3">
+      <c r="A25" s="34" t="n">
         <v>14.979444537311792</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="134" t="n">
         <v>62.529122307896614</v>
       </c>
-      <c r="C25" t="n" s="3">
+      <c r="C25" s="234" t="n">
         <v>9.7569138079416</v>
       </c>
-      <c r="D25" t="n" s="3">
+      <c r="D25" s="334" t="n">
         <v>9.949594454606995</v>
       </c>
-      <c r="E25" t="n" s="3">
+      <c r="E25" s="434" t="n">
         <v>28.159494914580137</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="3">
+      <c r="A26" s="35" t="n">
         <v>8.402029010467231</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="135" t="n">
         <v>41.714845201931894</v>
       </c>
-      <c r="C26" t="n" s="3">
+      <c r="C26" s="235" t="n">
         <v>6.347156559349969</v>
       </c>
-      <c r="D26" t="n" s="3">
+      <c r="D26" s="335" t="n">
         <v>6.0075319486204535</v>
       </c>
-      <c r="E26" t="n" s="3">
+      <c r="E26" s="435" t="n">
         <v>7.293837984325364</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="3">
+      <c r="A27" s="36" t="n">
         <v>3.4284042520448565</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="136" t="n">
         <v>12.562661156989634</v>
       </c>
-      <c r="C27" t="n" s="3">
+      <c r="C27" s="236" t="n">
         <v>8.294191955355927</v>
       </c>
-      <c r="D27" t="n" s="3">
+      <c r="D27" s="336" t="n">
         <v>9.972078783903271</v>
       </c>
-      <c r="E27" t="n" s="3">
+      <c r="E27" s="436" t="n">
         <v>17.41638714564033</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="3">
+      <c r="A28" s="37" t="n">
         <v>15.406032195314765</v>
       </c>
-      <c r="B28" t="n" s="3">
+      <c r="B28" s="137" t="n">
         <v>99.55791411921382</v>
       </c>
-      <c r="C28" t="n" s="3">
+      <c r="C28" s="237" t="n">
         <v>5.382356067420915</v>
       </c>
-      <c r="D28" t="n" s="3">
+      <c r="D28" s="337" t="n">
         <v>8.5062017259188</v>
       </c>
-      <c r="E28" t="n" s="3">
+      <c r="E28" s="437" t="n">
         <v>9.937531490577385</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="3">
+      <c r="A29" s="38" t="n">
         <v>17.639071755111217</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="138" t="n">
         <v>96.18026132229716</v>
       </c>
-      <c r="C29" t="n" s="3">
+      <c r="C29" s="238" t="n">
         <v>5.356426037615165</v>
       </c>
-      <c r="D29" t="n" s="3">
+      <c r="D29" s="338" t="n">
         <v>6.611374441767111</v>
       </c>
-      <c r="E29" t="n" s="3">
+      <c r="E29" s="438" t="n">
         <v>29.85332253272645</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="3">
+      <c r="A30" s="39" t="n">
         <v>10.981934205628932</v>
       </c>
-      <c r="B30" t="n" s="3">
+      <c r="B30" s="139" t="n">
         <v>59.648605866823345</v>
       </c>
-      <c r="C30" t="n" s="3">
+      <c r="C30" s="239" t="n">
         <v>6.851657599909231</v>
       </c>
-      <c r="D30" t="n" s="3">
+      <c r="D30" s="339" t="n">
         <v>6.518815758638084</v>
       </c>
-      <c r="E30" t="n" s="3">
+      <c r="E30" s="439" t="n">
         <v>5.920526054687798</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="3">
+      <c r="A31" s="40" t="n">
         <v>5.554475132375956</v>
       </c>
-      <c r="B31" t="n" s="3">
+      <c r="B31" s="140" t="n">
         <v>19.1758561716415</v>
       </c>
-      <c r="C31" t="n" s="3">
+      <c r="C31" s="240" t="n">
         <v>6.485511001665145</v>
       </c>
-      <c r="D31" t="n" s="3">
+      <c r="D31" s="340" t="n">
         <v>9.381462390301749</v>
       </c>
-      <c r="E31" t="n" s="3">
+      <c r="E31" s="440" t="n">
         <v>10.43907675310038</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="3">
+      <c r="A32" s="41" t="n">
         <v>9.766119881533086</v>
       </c>
-      <c r="B32" t="n" s="3">
+      <c r="B32" s="141" t="n">
         <v>31.41236332245171</v>
       </c>
-      <c r="C32" t="n" s="3">
+      <c r="C32" s="241" t="n">
         <v>7.755391360260546</v>
       </c>
-      <c r="D32" t="n" s="3">
+      <c r="D32" s="341" t="n">
         <v>4.850911282002926</v>
       </c>
-      <c r="E32" t="n" s="3">
+      <c r="E32" s="441" t="n">
         <v>27.27340356912464</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="3">
+      <c r="A33" s="42" t="n">
         <v>18.570101498626173</v>
       </c>
-      <c r="B33" t="n" s="3">
+      <c r="B33" s="142" t="n">
         <v>87.40878983866423</v>
       </c>
-      <c r="C33" t="n" s="3">
+      <c r="C33" s="242" t="n">
         <v>6.849452942842618</v>
       </c>
-      <c r="D33" t="n" s="3">
+      <c r="D33" s="342" t="n">
         <v>4.216998073970899</v>
       </c>
-      <c r="E33" t="n" s="3">
+      <c r="E33" s="442" t="n">
         <v>7.973411604762077</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="3">
+      <c r="A34" s="43" t="n">
         <v>6.973839635029435</v>
       </c>
-      <c r="B34" t="n" s="3">
+      <c r="B34" s="143" t="n">
         <v>76.4435157761909</v>
       </c>
-      <c r="C34" t="n" s="3">
+      <c r="C34" s="243" t="n">
         <v>9.228447659406811</v>
       </c>
-      <c r="D34" t="n" s="3">
+      <c r="D34" s="343" t="n">
         <v>5.802318785339594</v>
       </c>
-      <c r="E34" t="n" s="3">
+      <c r="E34" s="443" t="n">
         <v>14.225974854780361</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="3">
+      <c r="A35" s="44" t="n">
         <v>19.083154150284827</v>
       </c>
-      <c r="B35" t="n" s="3">
+      <c r="B35" s="144" t="n">
         <v>54.75810380652547</v>
       </c>
-      <c r="C35" t="n" s="3">
+      <c r="C35" s="244" t="n">
         <v>8.103953513782471</v>
       </c>
-      <c r="D35" t="n" s="3">
+      <c r="D35" s="344" t="n">
         <v>6.768501688260585</v>
       </c>
-      <c r="E35" t="n" s="3">
+      <c r="E35" s="444" t="n">
         <v>9.059410752961412</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="3">
+      <c r="A36" s="45" t="n">
         <v>13.905482781119645</v>
       </c>
-      <c r="B36" t="n" s="3">
+      <c r="B36" s="145" t="n">
         <v>62.19289766391739</v>
       </c>
-      <c r="C36" t="n" s="3">
+      <c r="C36" s="245" t="n">
         <v>6.995700111147016</v>
       </c>
-      <c r="D36" t="n" s="3">
+      <c r="D36" s="345" t="n">
         <v>4.714750622864813</v>
       </c>
-      <c r="E36" t="n" s="3">
+      <c r="E36" s="445" t="n">
         <v>9.16728796553798</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="3">
+      <c r="A37" s="46" t="n">
         <v>17.789070778526366</v>
       </c>
-      <c r="B37" t="n" s="3">
+      <c r="B37" s="146" t="n">
         <v>11.456504664383829</v>
       </c>
-      <c r="C37" t="n" s="3">
+      <c r="C37" s="246" t="n">
         <v>6.498307641595602</v>
       </c>
-      <c r="D37" t="n" s="3">
+      <c r="D37" s="346" t="n">
         <v>5.63095670635812</v>
       </c>
-      <c r="E37" t="n" s="3">
+      <c r="E37" s="446" t="n">
         <v>29.312617804389447</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="3">
+      <c r="A38" s="47" t="n">
         <v>3.6081449035555124</v>
       </c>
-      <c r="B38" t="n" s="3">
+      <c r="B38" s="147" t="n">
         <v>52.491689345333725</v>
       </c>
-      <c r="C38" t="n" s="3">
+      <c r="C38" s="247" t="n">
         <v>6.905599182937294</v>
       </c>
-      <c r="D38" t="n" s="3">
+      <c r="D38" s="347" t="n">
         <v>7.0617748310323805</v>
       </c>
-      <c r="E38" t="n" s="3">
+      <c r="E38" s="447" t="n">
         <v>25.259993599029258</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="3">
+      <c r="A39" s="48" t="n">
         <v>12.58781700860709</v>
       </c>
-      <c r="B39" t="n" s="3">
+      <c r="B39" s="148" t="n">
         <v>13.81507559446618</v>
       </c>
-      <c r="C39" t="n" s="3">
+      <c r="C39" s="248" t="n">
         <v>8.505674682091922</v>
       </c>
-      <c r="D39" t="n" s="3">
+      <c r="D39" s="348" t="n">
         <v>4.462687181774527</v>
       </c>
-      <c r="E39" t="n" s="3">
+      <c r="E39" s="448" t="n">
         <v>28.833190760342404</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="3">
+      <c r="A40" s="49" t="n">
         <v>19.79128273203969</v>
       </c>
-      <c r="B40" t="n" s="3">
+      <c r="B40" s="149" t="n">
         <v>51.68389746686444</v>
       </c>
-      <c r="C40" t="n" s="3">
+      <c r="C40" s="249" t="n">
         <v>9.734326453180984</v>
       </c>
-      <c r="D40" t="n" s="3">
+      <c r="D40" s="349" t="n">
         <v>8.609310051659122</v>
       </c>
-      <c r="E40" t="n" s="3">
+      <c r="E40" s="449" t="n">
         <v>14.997763170395046</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="3">
+      <c r="A41" s="50" t="n">
         <v>2.6057774014770985</v>
       </c>
-      <c r="B41" t="n" s="3">
+      <c r="B41" s="150" t="n">
         <v>66.6995291155763</v>
       </c>
-      <c r="C41" t="n" s="3">
+      <c r="C41" s="250" t="n">
         <v>8.864141604863107</v>
       </c>
-      <c r="D41" t="n" s="3">
+      <c r="D41" s="350" t="n">
         <v>7.471616908209398</v>
       </c>
-      <c r="E41" t="n" s="3">
+      <c r="E41" s="450" t="n">
         <v>26.306182991247624</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="3">
+      <c r="A42" s="51" t="n">
         <v>6.613210514187813</v>
       </c>
-      <c r="B42" t="n" s="3">
+      <c r="B42" s="151" t="n">
         <v>70.59243589872494</v>
       </c>
-      <c r="C42" t="n" s="3">
+      <c r="C42" s="251" t="n">
         <v>6.097750808112323</v>
       </c>
-      <c r="D42" t="n" s="3">
+      <c r="D42" s="351" t="n">
         <v>8.154315291903913</v>
       </c>
-      <c r="E42" t="n" s="3">
+      <c r="E42" s="451" t="n">
         <v>6.613071432802826</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="3">
+      <c r="A43" s="52" t="n">
         <v>17.302410933189094</v>
       </c>
-      <c r="B43" t="n" s="3">
+      <c r="B43" s="152" t="n">
         <v>17.833120357245207</v>
       </c>
-      <c r="C43" t="n" s="3">
+      <c r="C43" s="252" t="n">
         <v>8.580551812192425</v>
       </c>
-      <c r="D43" t="n" s="3">
+      <c r="D43" s="352" t="n">
         <v>6.071686853654683</v>
       </c>
-      <c r="E43" t="n" s="3">
+      <c r="E43" s="452" t="n">
         <v>12.56321917870082</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="3">
+      <c r="A44" s="53" t="n">
         <v>15.551688787527382</v>
       </c>
-      <c r="B44" t="n" s="3">
+      <c r="B44" s="153" t="n">
         <v>22.92254197411239</v>
       </c>
-      <c r="C44" t="n" s="3">
+      <c r="C44" s="253" t="n">
         <v>8.32108982373029</v>
       </c>
-      <c r="D44" t="n" s="3">
+      <c r="D44" s="353" t="n">
         <v>7.058686678064987</v>
       </c>
-      <c r="E44" t="n" s="3">
+      <c r="E44" s="453" t="n">
         <v>17.261821690481156</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="3">
+      <c r="A45" s="54" t="n">
         <v>16.546068992465734</v>
       </c>
-      <c r="B45" t="n" s="3">
+      <c r="B45" s="154" t="n">
         <v>91.76306490320712</v>
       </c>
-      <c r="C45" t="n" s="3">
+      <c r="C45" s="254" t="n">
         <v>8.531251006061211</v>
       </c>
-      <c r="D45" t="n" s="3">
+      <c r="D45" s="354" t="n">
         <v>4.792308066273108</v>
       </c>
-      <c r="E45" t="n" s="3">
+      <c r="E45" s="454" t="n">
         <v>21.156530985608697</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="3">
+      <c r="A46" s="55" t="n">
         <v>12.06648712977767</v>
       </c>
-      <c r="B46" t="n" s="3">
+      <c r="B46" s="155" t="n">
         <v>21.027933105360717</v>
       </c>
-      <c r="C46" t="n" s="3">
+      <c r="C46" s="255" t="n">
         <v>6.398139966186136</v>
       </c>
-      <c r="D46" t="n" s="3">
+      <c r="D46" s="355" t="n">
         <v>6.2460276240017265</v>
       </c>
-      <c r="E46" t="n" s="3">
+      <c r="E46" s="455" t="n">
         <v>17.765858159400523</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="3">
+      <c r="A47" s="56" t="n">
         <v>9.82463643886149</v>
       </c>
-      <c r="B47" t="n" s="3">
+      <c r="B47" s="156" t="n">
         <v>75.59765132376924</v>
       </c>
-      <c r="C47" t="n" s="3">
+      <c r="C47" s="256" t="n">
         <v>8.561252475483343</v>
       </c>
-      <c r="D47" t="n" s="3">
+      <c r="D47" s="356" t="n">
         <v>4.180304016219452</v>
       </c>
-      <c r="E47" t="n" s="3">
+      <c r="E47" s="456" t="n">
         <v>24.931480864761397</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="3">
+      <c r="A48" s="57" t="n">
         <v>15.607170220464468</v>
       </c>
-      <c r="B48" t="n" s="3">
+      <c r="B48" s="157" t="n">
         <v>95.53394586546347</v>
       </c>
-      <c r="C48" t="n" s="3">
+      <c r="C48" s="257" t="n">
         <v>8.304710541851819</v>
       </c>
-      <c r="D48" t="n" s="3">
+      <c r="D48" s="357" t="n">
         <v>7.297261730302125</v>
       </c>
-      <c r="E48" t="n" s="3">
+      <c r="E48" s="457" t="n">
         <v>19.125223632436246</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="3">
+      <c r="A49" s="58" t="n">
         <v>17.684540548361838</v>
       </c>
-      <c r="B49" t="n" s="3">
+      <c r="B49" s="158" t="n">
         <v>13.902032349724323</v>
       </c>
-      <c r="C49" t="n" s="3">
+      <c r="C49" s="258" t="n">
         <v>5.205063443863764</v>
       </c>
-      <c r="D49" t="n" s="3">
+      <c r="D49" s="358" t="n">
         <v>9.706718344707042</v>
       </c>
-      <c r="E49" t="n" s="3">
+      <c r="E49" s="458" t="n">
         <v>13.83809964871034</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="3">
+      <c r="A50" s="59" t="n">
         <v>4.154277956113219</v>
       </c>
-      <c r="B50" t="n" s="3">
+      <c r="B50" s="159" t="n">
         <v>11.763936821371317</v>
       </c>
-      <c r="C50" t="n" s="3">
+      <c r="C50" s="259" t="n">
         <v>5.305707474472001</v>
       </c>
-      <c r="D50" t="n" s="3">
+      <c r="D50" s="359" t="n">
         <v>6.3473631027154624</v>
       </c>
-      <c r="E50" t="n" s="3">
+      <c r="E50" s="459" t="n">
         <v>21.477498592576012</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="3">
+      <c r="A51" s="60" t="n">
         <v>6.141717936843634</v>
       </c>
-      <c r="B51" t="n" s="3">
+      <c r="B51" s="160" t="n">
         <v>27.916521437000483</v>
       </c>
-      <c r="C51" t="n" s="3">
+      <c r="C51" s="260" t="n">
         <v>6.398808464873582</v>
       </c>
-      <c r="D51" t="n" s="3">
+      <c r="D51" s="360" t="n">
         <v>8.258115315809846</v>
       </c>
-      <c r="E51" t="n" s="3">
+      <c r="E51" s="460" t="n">
         <v>10.98186440183781</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="3">
+      <c r="A52" s="61" t="n">
         <v>6.610596962273121</v>
       </c>
-      <c r="B52" t="n" s="3">
+      <c r="B52" s="161" t="n">
         <v>55.45776353916153</v>
       </c>
-      <c r="C52" t="n" s="3">
+      <c r="C52" s="261" t="n">
         <v>6.509838585043326</v>
       </c>
-      <c r="D52" t="n" s="3">
+      <c r="D52" s="361" t="n">
         <v>3.144082515966147</v>
       </c>
-      <c r="E52" t="n" s="3">
+      <c r="E52" s="461" t="n">
         <v>11.630269688321277</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="3">
+      <c r="A53" s="62" t="n">
         <v>3.973581404425204</v>
       </c>
-      <c r="B53" t="n" s="3">
+      <c r="B53" s="162" t="n">
         <v>93.37498866021633</v>
       </c>
-      <c r="C53" t="n" s="3">
+      <c r="C53" s="262" t="n">
         <v>9.783054150175303</v>
       </c>
-      <c r="D53" t="n" s="3">
+      <c r="D53" s="362" t="n">
         <v>4.196783189661801</v>
       </c>
-      <c r="E53" t="n" s="3">
+      <c r="E53" s="462" t="n">
         <v>17.956721283262596</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n" s="3">
+      <c r="A54" s="63" t="n">
         <v>4.713886040262878</v>
       </c>
-      <c r="B54" t="n" s="3">
+      <c r="B54" s="163" t="n">
         <v>22.456152241211385</v>
       </c>
-      <c r="C54" t="n" s="3">
+      <c r="C54" s="263" t="n">
         <v>6.949093594448641</v>
       </c>
-      <c r="D54" t="n" s="3">
+      <c r="D54" s="363" t="n">
         <v>7.479765475494787</v>
       </c>
-      <c r="E54" t="n" s="3">
+      <c r="E54" s="463" t="n">
         <v>23.447771715000272</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n" s="3">
+      <c r="A55" s="64" t="n">
         <v>5.4977332055568695</v>
       </c>
-      <c r="B55" t="n" s="3">
+      <c r="B55" s="164" t="n">
         <v>25.22751184878871</v>
       </c>
-      <c r="C55" t="n" s="3">
+      <c r="C55" s="264" t="n">
         <v>6.858943933621049</v>
       </c>
-      <c r="D55" t="n" s="3">
+      <c r="D55" s="364" t="n">
         <v>4.154849392361939</v>
       </c>
-      <c r="E55" t="n" s="3">
+      <c r="E55" s="464" t="n">
         <v>24.490272650728002</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n" s="3">
+      <c r="A56" s="65" t="n">
         <v>11.826421073637903</v>
       </c>
-      <c r="B56" t="n" s="3">
+      <c r="B56" s="165" t="n">
         <v>64.59646401228383</v>
       </c>
-      <c r="C56" t="n" s="3">
+      <c r="C56" s="265" t="n">
         <v>9.215712430886924</v>
       </c>
-      <c r="D56" t="n" s="3">
+      <c r="D56" s="365" t="n">
         <v>5.483059427002445</v>
       </c>
-      <c r="E56" t="n" s="3">
+      <c r="E56" s="465" t="n">
         <v>7.8673599124886096</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n" s="3">
+      <c r="A57" s="66" t="n">
         <v>5.067813075147569</v>
       </c>
-      <c r="B57" t="n" s="3">
+      <c r="B57" s="166" t="n">
         <v>83.4289024118334</v>
       </c>
-      <c r="C57" t="n" s="3">
+      <c r="C57" s="266" t="n">
         <v>9.236175002297387</v>
       </c>
-      <c r="D57" t="n" s="3">
+      <c r="D57" s="366" t="n">
         <v>4.304985316470265</v>
       </c>
-      <c r="E57" t="n" s="3">
+      <c r="E57" s="466" t="n">
         <v>20.309333731420338</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n" s="3">
+      <c r="A58" s="67" t="n">
         <v>2.4697446078062057</v>
       </c>
-      <c r="B58" t="n" s="3">
+      <c r="B58" s="167" t="n">
         <v>85.90430866926908</v>
       </c>
-      <c r="C58" t="n" s="3">
+      <c r="C58" s="267" t="n">
         <v>6.596655762987211</v>
       </c>
-      <c r="D58" t="n" s="3">
+      <c r="D58" s="367" t="n">
         <v>9.283593129366636</v>
       </c>
-      <c r="E58" t="n" s="3">
+      <c r="E58" s="467" t="n">
         <v>27.773404384497553</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n" s="3">
+      <c r="A59" s="68" t="n">
         <v>4.598117740824819</v>
       </c>
-      <c r="B59" t="n" s="3">
+      <c r="B59" s="168" t="n">
         <v>80.92694741906598</v>
       </c>
-      <c r="C59" t="n" s="3">
+      <c r="C59" s="268" t="n">
         <v>5.662530232220888</v>
       </c>
-      <c r="D59" t="n" s="3">
+      <c r="D59" s="368" t="n">
         <v>4.664486991940066</v>
       </c>
-      <c r="E59" t="n" s="3">
+      <c r="E59" s="468" t="n">
         <v>20.85053648450412</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n" s="3">
+      <c r="A60" s="69" t="n">
         <v>11.95150584448129</v>
       </c>
-      <c r="B60" t="n" s="3">
+      <c r="B60" s="169" t="n">
         <v>11.711877910420299</v>
       </c>
-      <c r="C60" t="n" s="3">
+      <c r="C60" s="269" t="n">
         <v>8.085545599460602</v>
       </c>
-      <c r="D60" t="n" s="3">
+      <c r="D60" s="369" t="n">
         <v>9.89460439258255</v>
       </c>
-      <c r="E60" t="n" s="3">
+      <c r="E60" s="469" t="n">
         <v>11.866600824287161</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n" s="3">
+      <c r="A61" s="70" t="n">
         <v>4.228171119466424</v>
       </c>
-      <c r="B61" t="n" s="3">
+      <c r="B61" s="170" t="n">
         <v>72.8278747224249</v>
       </c>
-      <c r="C61" t="n" s="3">
+      <c r="C61" s="270" t="n">
         <v>8.956522546941414</v>
       </c>
-      <c r="D61" t="n" s="3">
+      <c r="D61" s="370" t="n">
         <v>3.1493151576723903</v>
       </c>
-      <c r="E61" t="n" s="3">
+      <c r="E61" s="470" t="n">
         <v>13.820883452426642</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n" s="3">
+      <c r="A62" s="71" t="n">
         <v>9.274023561738431</v>
       </c>
-      <c r="B62" t="n" s="3">
+      <c r="B62" s="171" t="n">
         <v>83.35838038939983</v>
       </c>
-      <c r="C62" t="n" s="3">
+      <c r="C62" s="271" t="n">
         <v>6.690243531484157</v>
       </c>
-      <c r="D62" t="n" s="3">
+      <c r="D62" s="371" t="n">
         <v>3.75277275708504</v>
       </c>
-      <c r="E62" t="n" s="3">
+      <c r="E62" s="471" t="n">
         <v>21.770733916200697</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n" s="3">
+      <c r="A63" s="72" t="n">
         <v>12.942023882642388</v>
       </c>
-      <c r="B63" t="n" s="3">
+      <c r="B63" s="172" t="n">
         <v>61.15600548917428</v>
       </c>
-      <c r="C63" t="n" s="3">
+      <c r="C63" s="272" t="n">
         <v>9.527237984584644</v>
       </c>
-      <c r="D63" t="n" s="3">
+      <c r="D63" s="372" t="n">
         <v>4.713787798536941</v>
       </c>
-      <c r="E63" t="n" s="3">
+      <c r="E63" s="472" t="n">
         <v>27.66778547782451</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n" s="3">
+      <c r="A64" s="73" t="n">
         <v>19.21146184206009</v>
       </c>
-      <c r="B64" t="n" s="3">
+      <c r="B64" s="173" t="n">
         <v>53.20565945934504</v>
       </c>
-      <c r="C64" t="n" s="3">
+      <c r="C64" s="273" t="n">
         <v>5.987783550517634</v>
       </c>
-      <c r="D64" t="n" s="3">
+      <c r="D64" s="373" t="n">
         <v>8.056536839343607</v>
       </c>
-      <c r="E64" t="n" s="3">
+      <c r="E64" s="473" t="n">
         <v>23.255895795300603</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n" s="3">
+      <c r="A65" s="74" t="n">
         <v>13.527963431552052</v>
       </c>
-      <c r="B65" t="n" s="3">
+      <c r="B65" s="174" t="n">
         <v>24.523310591466725</v>
       </c>
-      <c r="C65" t="n" s="3">
+      <c r="C65" s="274" t="n">
         <v>8.970425897277892</v>
       </c>
-      <c r="D65" t="n" s="3">
+      <c r="D65" s="374" t="n">
         <v>3.229144603246823</v>
       </c>
-      <c r="E65" t="n" s="3">
+      <c r="E65" s="474" t="n">
         <v>27.994174720952287</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n" s="3">
+      <c r="A66" s="75" t="n">
         <v>8.902960433624685</v>
       </c>
-      <c r="B66" t="n" s="3">
+      <c r="B66" s="175" t="n">
         <v>18.033060871530324</v>
       </c>
-      <c r="C66" t="n" s="3">
+      <c r="C66" s="275" t="n">
         <v>8.773014473263174</v>
       </c>
-      <c r="D66" t="n" s="3">
+      <c r="D66" s="375" t="n">
         <v>6.84544995916076</v>
       </c>
-      <c r="E66" t="n" s="3">
+      <c r="E66" s="475" t="n">
         <v>14.560831426642835</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n" s="3">
+      <c r="A67" s="76" t="n">
         <v>7.155475658364594</v>
       </c>
-      <c r="B67" t="n" s="3">
+      <c r="B67" s="176" t="n">
         <v>24.641413744539022</v>
       </c>
-      <c r="C67" t="n" s="3">
+      <c r="C67" s="276" t="n">
         <v>9.55697423662059</v>
       </c>
-      <c r="D67" t="n" s="3">
+      <c r="D67" s="376" t="n">
         <v>7.779660769738257</v>
       </c>
-      <c r="E67" t="n" s="3">
+      <c r="E67" s="476" t="n">
         <v>26.353513444773853</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n" s="3">
+      <c r="A68" s="77" t="n">
         <v>9.114629123359919</v>
       </c>
-      <c r="B68" t="n" s="3">
+      <c r="B68" s="177" t="n">
         <v>12.405560528859496</v>
       </c>
-      <c r="C68" t="n" s="3">
+      <c r="C68" s="277" t="n">
         <v>6.613438522908837</v>
       </c>
-      <c r="D68" t="n" s="3">
+      <c r="D68" s="377" t="n">
         <v>5.101686279755086</v>
       </c>
-      <c r="E68" t="n" s="3">
+      <c r="E68" s="477" t="n">
         <v>6.368352252757177</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n" s="3">
+      <c r="A69" s="78" t="n">
         <v>8.908279538154602</v>
       </c>
-      <c r="B69" t="n" s="3">
+      <c r="B69" s="178" t="n">
         <v>73.86665280442685</v>
       </c>
-      <c r="C69" t="n" s="3">
+      <c r="C69" s="278" t="n">
         <v>5.4308473656419665</v>
       </c>
-      <c r="D69" t="n" s="3">
+      <c r="D69" s="378" t="n">
         <v>5.721421224530786</v>
       </c>
-      <c r="E69" t="n" s="3">
+      <c r="E69" s="478" t="n">
         <v>11.349650723859668</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n" s="3">
+      <c r="A70" s="79" t="n">
         <v>4.901851783506572</v>
       </c>
-      <c r="B70" t="n" s="3">
+      <c r="B70" s="179" t="n">
         <v>78.49163593258709</v>
       </c>
-      <c r="C70" t="n" s="3">
+      <c r="C70" s="279" t="n">
         <v>9.556002271128818</v>
       </c>
-      <c r="D70" t="n" s="3">
+      <c r="D70" s="379" t="n">
         <v>8.127123062498868</v>
       </c>
-      <c r="E70" t="n" s="3">
+      <c r="E70" s="479" t="n">
         <v>14.178224939387292</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n" s="3">
+      <c r="A71" s="80" t="n">
         <v>13.887014240026474</v>
       </c>
-      <c r="B71" t="n" s="3">
+      <c r="B71" s="180" t="n">
         <v>87.17273015296087</v>
       </c>
-      <c r="C71" t="n" s="3">
+      <c r="C71" s="280" t="n">
         <v>9.775869125733152</v>
       </c>
-      <c r="D71" t="n" s="3">
+      <c r="D71" s="380" t="n">
         <v>9.737474927911535</v>
       </c>
-      <c r="E71" t="n" s="3">
+      <c r="E71" s="480" t="n">
         <v>14.014260198455304</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n" s="3">
+      <c r="A72" s="81" t="n">
         <v>8.244740702211857</v>
       </c>
-      <c r="B72" t="n" s="3">
+      <c r="B72" s="181" t="n">
         <v>49.353923788294196</v>
       </c>
-      <c r="C72" t="n" s="3">
+      <c r="C72" s="281" t="n">
         <v>8.355714719509706</v>
       </c>
-      <c r="D72" t="n" s="3">
+      <c r="D72" s="381" t="n">
         <v>8.324173192260787</v>
       </c>
-      <c r="E72" t="n" s="3">
+      <c r="E72" s="481" t="n">
         <v>12.012913271319121</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n" s="3">
+      <c r="A73" s="82" t="n">
         <v>6.55451737344265</v>
       </c>
-      <c r="B73" t="n" s="3">
+      <c r="B73" s="182" t="n">
         <v>47.54228021251038</v>
       </c>
-      <c r="C73" t="n" s="3">
+      <c r="C73" s="282" t="n">
         <v>8.724911004537717</v>
       </c>
-      <c r="D73" t="n" s="3">
+      <c r="D73" s="382" t="n">
         <v>7.071712134405971</v>
       </c>
-      <c r="E73" t="n" s="3">
+      <c r="E73" s="482" t="n">
         <v>14.717312752036378</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n" s="3">
+      <c r="A74" s="83" t="n">
         <v>11.451295339502394</v>
       </c>
-      <c r="B74" t="n" s="3">
+      <c r="B74" s="183" t="n">
         <v>62.70845413208008</v>
       </c>
-      <c r="C74" t="n" s="3">
+      <c r="C74" s="283" t="n">
         <v>7.200084881624207</v>
       </c>
-      <c r="D74" t="n" s="3">
+      <c r="D74" s="383" t="n">
         <v>6.240110950777307</v>
       </c>
-      <c r="E74" t="n" s="3">
+      <c r="E74" s="483" t="n">
         <v>13.703361061634496</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n" s="3">
+      <c r="A75" s="84" t="n">
         <v>19.33998168911785</v>
       </c>
-      <c r="B75" t="n" s="3">
+      <c r="B75" s="184" t="n">
         <v>84.2470822762698</v>
       </c>
-      <c r="C75" t="n" s="3">
+      <c r="C75" s="284" t="n">
         <v>5.575197089929134</v>
       </c>
-      <c r="D75" t="n" s="3">
+      <c r="D75" s="384" t="n">
         <v>5.494167343014851</v>
       </c>
-      <c r="E75" t="n" s="3">
+      <c r="E75" s="484" t="n">
         <v>11.973076675785705</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n" s="3">
+      <c r="A76" s="85" t="n">
         <v>13.23558044154197</v>
       </c>
-      <c r="B76" t="n" s="3">
+      <c r="B76" s="185" t="n">
         <v>81.38253046898171</v>
       </c>
-      <c r="C76" t="n" s="3">
+      <c r="C76" s="285" t="n">
         <v>8.378213910618797</v>
       </c>
-      <c r="D76" t="n" s="3">
+      <c r="D76" s="385" t="n">
         <v>5.687452710466459</v>
       </c>
-      <c r="E76" t="n" s="3">
+      <c r="E76" s="485" t="n">
         <v>25.027203374775127</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n" s="3">
+      <c r="A77" s="86" t="n">
         <v>12.493954338133335</v>
       </c>
-      <c r="B77" t="n" s="3">
+      <c r="B77" s="186" t="n">
         <v>39.35373130720109</v>
       </c>
-      <c r="C77" t="n" s="3">
+      <c r="C77" s="286" t="n">
         <v>8.65779758314602</v>
       </c>
-      <c r="D77" t="n" s="3">
+      <c r="D77" s="386" t="n">
         <v>4.4404672246892005</v>
       </c>
-      <c r="E77" t="n" s="3">
+      <c r="E77" s="486" t="n">
         <v>29.875346018234268</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n" s="3">
+      <c r="A78" s="87" t="n">
         <v>17.133060852065682</v>
       </c>
-      <c r="B78" t="n" s="3">
+      <c r="B78" s="187" t="n">
         <v>96.2138749123551</v>
       </c>
-      <c r="C78" t="n" s="3">
+      <c r="C78" s="287" t="n">
         <v>7.4199245136696845</v>
       </c>
-      <c r="D78" t="n" s="3">
+      <c r="D78" s="387" t="n">
         <v>3.971462595742196</v>
       </c>
-      <c r="E78" t="n" s="3">
+      <c r="E78" s="487" t="n">
         <v>23.83104905136861</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n" s="3">
+      <c r="A79" s="88" t="n">
         <v>15.495577761903405</v>
       </c>
-      <c r="B79" t="n" s="3">
+      <c r="B79" s="188" t="n">
         <v>68.77176486654207</v>
       </c>
-      <c r="C79" t="n" s="3">
+      <c r="C79" s="288" t="n">
         <v>5.855240189703181</v>
       </c>
-      <c r="D79" t="n" s="3">
+      <c r="D79" s="388" t="n">
         <v>5.723575004842132</v>
       </c>
-      <c r="E79" t="n" s="3">
+      <c r="E79" s="488" t="n">
         <v>20.08357321145013</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n" s="3">
+      <c r="A80" s="89" t="n">
         <v>16.68054197449237</v>
       </c>
-      <c r="B80" t="n" s="3">
+      <c r="B80" s="189" t="n">
         <v>51.28082372946665</v>
       </c>
-      <c r="C80" t="n" s="3">
+      <c r="C80" s="289" t="n">
         <v>8.379242673981935</v>
       </c>
-      <c r="D80" t="n" s="3">
+      <c r="D80" s="389" t="n">
         <v>4.862323559354991</v>
       </c>
-      <c r="E80" t="n" s="3">
+      <c r="E80" s="489" t="n">
         <v>19.848704502219334</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n" s="3">
+      <c r="A81" s="90" t="n">
         <v>1.8302055727690458</v>
       </c>
-      <c r="B81" t="n" s="3">
+      <c r="B81" s="190" t="n">
         <v>64.54196950886399</v>
       </c>
-      <c r="C81" t="n" s="3">
+      <c r="C81" s="290" t="n">
         <v>6.314949732040986</v>
       </c>
-      <c r="D81" t="n" s="3">
+      <c r="D81" s="390" t="n">
         <v>7.923073974670842</v>
       </c>
-      <c r="E81" t="n" s="3">
+      <c r="E81" s="490" t="n">
         <v>19.55725720152259</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n" s="3">
+      <c r="A82" s="91" t="n">
         <v>9.190509733743966</v>
       </c>
-      <c r="B82" t="n" s="3">
+      <c r="B82" s="191" t="n">
         <v>35.98497430793941</v>
       </c>
-      <c r="C82" t="n" s="3">
+      <c r="C82" s="291" t="n">
         <v>6.707404146436602</v>
       </c>
-      <c r="D82" t="n" s="3">
+      <c r="D82" s="391" t="n">
         <v>5.855147165711969</v>
       </c>
-      <c r="E82" t="n" s="3">
+      <c r="E82" s="491" t="n">
         <v>10.966482136864215</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n" s="3">
+      <c r="A83" s="92" t="n">
         <v>11.987963118590415</v>
       </c>
-      <c r="B83" t="n" s="3">
+      <c r="B83" s="192" t="n">
         <v>74.60477593820542</v>
       </c>
-      <c r="C83" t="n" s="3">
+      <c r="C83" s="292" t="n">
         <v>6.051227714633569</v>
       </c>
-      <c r="D83" t="n" s="3">
+      <c r="D83" s="392" t="n">
         <v>4.8589493576437235</v>
       </c>
-      <c r="E83" t="n" s="3">
+      <c r="E83" s="492" t="n">
         <v>16.357109539676458</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n" s="3">
+      <c r="A84" s="93" t="n">
         <v>18.394438214600086</v>
       </c>
-      <c r="B84" t="n" s="3">
+      <c r="B84" s="193" t="n">
         <v>93.10576983029023</v>
       </c>
-      <c r="C84" t="n" s="3">
+      <c r="C84" s="293" t="n">
         <v>5.081597970565781</v>
       </c>
-      <c r="D84" t="n" s="3">
+      <c r="D84" s="393" t="n">
         <v>5.806844985578209</v>
       </c>
-      <c r="E84" t="n" s="3">
+      <c r="E84" s="493" t="n">
         <v>29.887915642466396</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n" s="3">
+      <c r="A85" s="94" t="n">
         <v>19.656481547281146</v>
       </c>
-      <c r="B85" t="n" s="3">
+      <c r="B85" s="194" t="n">
         <v>70.74455377878621</v>
       </c>
-      <c r="C85" t="n" s="3">
+      <c r="C85" s="294" t="n">
         <v>6.88381438725628</v>
       </c>
-      <c r="D85" t="n" s="3">
+      <c r="D85" s="394" t="n">
         <v>4.3811919239815325</v>
       </c>
-      <c r="E85" t="n" s="3">
+      <c r="E85" s="494" t="n">
         <v>7.06864956417121</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n" s="3">
+      <c r="A86" s="95" t="n">
         <v>0.7560515869408846</v>
       </c>
-      <c r="B86" t="n" s="3">
+      <c r="B86" s="195" t="n">
         <v>26.734599308110774</v>
       </c>
-      <c r="C86" t="n" s="3">
+      <c r="C86" s="295" t="n">
         <v>7.811537008965388</v>
       </c>
-      <c r="D86" t="n" s="3">
+      <c r="D86" s="395" t="n">
         <v>8.809521812945604</v>
       </c>
-      <c r="E86" t="n" s="3">
+      <c r="E86" s="495" t="n">
         <v>6.297650136984885</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n" s="3">
+      <c r="A87" s="96" t="n">
         <v>11.55874801799655</v>
       </c>
-      <c r="B87" t="n" s="3">
+      <c r="B87" s="196" t="n">
         <v>41.32604465121403</v>
       </c>
-      <c r="C87" t="n" s="3">
+      <c r="C87" s="296" t="n">
         <v>8.39992303866893</v>
       </c>
-      <c r="D87" t="n" s="3">
+      <c r="D87" s="396" t="n">
         <v>6.695914113195613</v>
       </c>
-      <c r="E87" t="n" s="3">
+      <c r="E87" s="496" t="n">
         <v>17.344930320978165</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n" s="3">
+      <c r="A88" s="97" t="n">
         <v>14.666283363476396</v>
       </c>
-      <c r="B88" t="n" s="3">
+      <c r="B88" s="197" t="n">
         <v>21.116757809650153</v>
       </c>
-      <c r="C88" t="n" s="3">
+      <c r="C88" s="297" t="n">
         <v>8.726943852379918</v>
       </c>
-      <c r="D88" t="n" s="3">
+      <c r="D88" s="397" t="n">
         <v>5.765911332098767</v>
       </c>
-      <c r="E88" t="n" s="3">
+      <c r="E88" s="497" t="n">
         <v>6.349839911563322</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n" s="3">
+      <c r="A89" s="98" t="n">
         <v>4.974848055280745</v>
       </c>
-      <c r="B89" t="n" s="3">
+      <c r="B89" s="198" t="n">
         <v>19.730459693819284</v>
       </c>
-      <c r="C89" t="n" s="3">
+      <c r="C89" s="298" t="n">
         <v>9.750363611383364</v>
       </c>
-      <c r="D89" t="n" s="3">
+      <c r="D89" s="398" t="n">
         <v>7.01776596205309</v>
       </c>
-      <c r="E89" t="n" s="3">
+      <c r="E89" s="498" t="n">
         <v>28.761214327532798</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n" s="3">
+      <c r="A90" s="99" t="n">
         <v>6.014730497263372</v>
       </c>
-      <c r="B90" t="n" s="3">
+      <c r="B90" s="199" t="n">
         <v>36.81578798452392</v>
       </c>
-      <c r="C90" t="n" s="3">
+      <c r="C90" s="299" t="n">
         <v>5.815453571267426</v>
       </c>
-      <c r="D90" t="n" s="3">
+      <c r="D90" s="399" t="n">
         <v>9.796804488403723</v>
       </c>
-      <c r="E90" t="n" s="3">
+      <c r="E90" s="499" t="n">
         <v>20.829781536012888</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n" s="3">
+      <c r="A91" s="100" t="n">
         <v>14.669334031641483</v>
       </c>
-      <c r="B91" t="n" s="3">
+      <c r="B91" s="200" t="n">
         <v>85.43799108359963</v>
       </c>
-      <c r="C91" t="n" s="3">
+      <c r="C91" s="300" t="n">
         <v>6.623784510884434</v>
       </c>
-      <c r="D91" t="n" s="3">
+      <c r="D91" s="400" t="n">
         <v>7.551048798020929</v>
       </c>
-      <c r="E91" t="n" s="3">
+      <c r="E91" s="500" t="n">
         <v>11.748427014099434</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n" s="3">
+      <c r="A92" s="101" t="n">
         <v>18.139087511226535</v>
       </c>
-      <c r="B92" t="n" s="3">
+      <c r="B92" s="201" t="n">
         <v>99.34939845697954</v>
       </c>
-      <c r="C92" t="n" s="3">
+      <c r="C92" s="301" t="n">
         <v>5.663580177351832</v>
       </c>
-      <c r="D92" t="n" s="3">
+      <c r="D92" s="401" t="n">
         <v>5.335208111675456</v>
       </c>
-      <c r="E92" t="n" s="3">
+      <c r="E92" s="501" t="n">
         <v>29.92032340960577</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n" s="3">
+      <c r="A93" s="102" t="n">
         <v>4.196335361339152</v>
       </c>
-      <c r="B93" t="n" s="3">
+      <c r="B93" s="202" t="n">
         <v>49.34209683910012</v>
       </c>
-      <c r="C93" t="n" s="3">
+      <c r="C93" s="302" t="n">
         <v>8.186487193452194</v>
       </c>
-      <c r="D93" t="n" s="3">
+      <c r="D93" s="402" t="n">
         <v>5.3201319999061525</v>
       </c>
-      <c r="E93" t="n" s="3">
+      <c r="E93" s="502" t="n">
         <v>13.970102784223855</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n" s="3">
+      <c r="A94" s="103" t="n">
         <v>7.162759783677757</v>
       </c>
-      <c r="B94" t="n" s="3">
+      <c r="B94" s="203" t="n">
         <v>28.230811352841556</v>
       </c>
-      <c r="C94" t="n" s="3">
+      <c r="C94" s="303" t="n">
         <v>6.6546480532269925</v>
       </c>
-      <c r="D94" t="n" s="3">
+      <c r="D94" s="403" t="n">
         <v>9.597044179216027</v>
       </c>
-      <c r="E94" t="n" s="3">
+      <c r="E94" s="503" t="n">
         <v>14.294051944743842</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n" s="3">
+      <c r="A95" s="104" t="n">
         <v>8.965982887893915</v>
       </c>
-      <c r="B95" t="n" s="3">
+      <c r="B95" s="204" t="n">
         <v>96.74843506189063</v>
       </c>
-      <c r="C95" t="n" s="3">
+      <c r="C95" s="304" t="n">
         <v>8.245397864375263</v>
       </c>
-      <c r="D95" t="n" s="3">
+      <c r="D95" s="404" t="n">
         <v>5.667787461541593</v>
       </c>
-      <c r="E95" t="n" s="3">
+      <c r="E95" s="504" t="n">
         <v>13.255659963469952</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n" s="3">
+      <c r="A96" s="105" t="n">
         <v>18.128528660163283</v>
       </c>
-      <c r="B96" t="n" s="3">
+      <c r="B96" s="205" t="n">
         <v>69.43484008545056</v>
       </c>
-      <c r="C96" t="n" s="3">
+      <c r="C96" s="305" t="n">
         <v>6.514441794715822</v>
       </c>
-      <c r="D96" t="n" s="3">
+      <c r="D96" s="405" t="n">
         <v>6.95026745996438</v>
       </c>
-      <c r="E96" t="n" s="3">
+      <c r="E96" s="505" t="n">
         <v>7.60988783556968</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n" s="3">
+      <c r="A97" s="106" t="n">
         <v>7.788785914890468</v>
       </c>
-      <c r="B97" t="n" s="3">
+      <c r="B97" s="206" t="n">
         <v>36.83051465312019</v>
       </c>
-      <c r="C97" t="n" s="3">
+      <c r="C97" s="306" t="n">
         <v>5.356166331330314</v>
       </c>
-      <c r="D97" t="n" s="3">
+      <c r="D97" s="406" t="n">
         <v>6.580609820317477</v>
       </c>
-      <c r="E97" t="n" s="3">
+      <c r="E97" s="506" t="n">
         <v>19.497535722330213</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n" s="3">
+      <c r="A98" s="107" t="n">
         <v>10.349194989539683</v>
       </c>
-      <c r="B98" t="n" s="3">
+      <c r="B98" s="207" t="n">
         <v>20.73359672911465</v>
       </c>
-      <c r="C98" t="n" s="3">
+      <c r="C98" s="307" t="n">
         <v>8.311952344374731</v>
       </c>
-      <c r="D98" t="n" s="3">
+      <c r="D98" s="407" t="n">
         <v>3.972023885929957</v>
       </c>
-      <c r="E98" t="n" s="3">
+      <c r="E98" s="507" t="n">
         <v>13.32723664934747</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n" s="3">
+      <c r="A99" s="108" t="n">
         <v>2.5047817546874285</v>
       </c>
-      <c r="B99" t="n" s="3">
+      <c r="B99" s="208" t="n">
         <v>63.97764411056414</v>
       </c>
-      <c r="C99" t="n" s="3">
+      <c r="C99" s="308" t="n">
         <v>8.798017808003351</v>
       </c>
-      <c r="D99" t="n" s="3">
+      <c r="D99" s="408" t="n">
         <v>4.678525891387835</v>
       </c>
-      <c r="E99" t="n" s="3">
+      <c r="E99" s="508" t="n">
         <v>5.094439479289576</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n" s="3">
+      <c r="A100" s="109" t="n">
         <v>0.6029149144887924</v>
       </c>
-      <c r="B100" t="n" s="3">
+      <c r="B100" s="209" t="n">
         <v>20.817149761132896</v>
       </c>
-      <c r="C100" t="n" s="3">
+      <c r="C100" s="309" t="n">
         <v>7.766800846438855</v>
       </c>
-      <c r="D100" t="n" s="3">
+      <c r="D100" s="409" t="n">
         <v>8.026063687400892</v>
       </c>
-      <c r="E100" t="n" s="3">
+      <c r="E100" s="509" t="n">
         <v>29.864902737317607</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n" s="3">
+      <c r="A101" s="110" t="n">
         <v>15.436109891161323</v>
       </c>
-      <c r="B101" t="n" s="3">
+      <c r="B101" s="210" t="n">
         <v>80.95888146432117</v>
       </c>
-      <c r="C101" t="n" s="3">
+      <c r="C101" s="310" t="n">
         <v>7.696360488189384</v>
       </c>
-      <c r="D101" t="n" s="3">
+      <c r="D101" s="410" t="n">
         <v>5.080566444201395</v>
       </c>
-      <c r="E101" t="n" s="3">
+      <c r="E101" s="510" t="n">
         <v>14.230871527688578</v>
       </c>
     </row>
